--- a/SPPSApi/Doc/Template/FS0622_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0622_Data.xlsx
@@ -19,7 +19,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>组别</t>
+    <t>波动比例(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -27,11 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>波动比例(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
+    <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -403,16 +403,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0622_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0622_Data.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -75,9 +75,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,15 +388,15 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" style="1" customWidth="1"/>
@@ -402,16 +408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
